--- a/VL.Research/XMLConfig/PrematureBabyManagementOrganization/早产儿管理情况.xlsx
+++ b/VL.Research/XMLConfig/PrematureBabyManagementOrganization/早产儿管理情况.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690"/>
+    <workbookView windowWidth="22680" windowHeight="12405"/>
   </bookViews>
   <sheets>
     <sheet name="列表" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>表4.  早产儿管理情况统计季度报表</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>填报单位（签章）</t>
+  </si>
+  <si>
+    <t>@DataUser_FuWuJGMC</t>
   </si>
 </sst>
 </file>
@@ -121,8 +124,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
@@ -190,34 +193,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -226,6 +201,127 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -234,105 +330,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -343,187 +346,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,15 +595,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -623,21 +617,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -648,6 +627,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,22 +666,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,10 +695,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -704,138 +707,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -894,8 +897,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1219,8 +1228,8 @@
   <sheetPr/>
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A35" sqref="$A35:$XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1738,11 +1747,13 @@
       <c r="D35" s="20"/>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
+      <c r="G35" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="22"/>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:2">
       <c r="A36" s="18" t="s">
@@ -1753,14 +1764,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A26:L26"/>
     <mergeCell ref="A27:L27"/>
     <mergeCell ref="A28:L28"/>
-    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:J35"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:C6"/>
